--- a/wyniki_temp.xlsx
+++ b/wyniki_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>r_pytania</t>
   </si>
@@ -43,31 +43,28 @@
     <t>Wiktoria</t>
   </si>
   <si>
-    <t>Przeszłość</t>
-  </si>
-  <si>
-    <t>Śmieszne</t>
-  </si>
-  <si>
-    <t>Luźne</t>
-  </si>
-  <si>
-    <t>Czy miałeś ulubioną książkę lub bajkę, do której często wracałeś?</t>
-  </si>
-  <si>
-    <t>Czy potrafisz pomylić ketchup z pastą do zębów (przez nieuwagę)?</t>
-  </si>
-  <si>
-    <t>Czy potrafisz przez przypadek otworzyć kalkulator, szukając wiadomości?</t>
-  </si>
-  <si>
-    <t>Czy masz nawyk tworzenia playlist na każdą możliwą okazję?</t>
-  </si>
-  <si>
-    <t>Czy zdarza Ci się mówić do zwierząt, jak do ludzi?</t>
-  </si>
-  <si>
-    <t>Czy potrafisz siedzieć godzinami w jednej pozycji, a potem wstać jak robot?</t>
+    <t>Wolisz</t>
+  </si>
+  <si>
+    <t>Związkowe</t>
+  </si>
+  <si>
+    <t>Wolisz oglądać sport czy uprawiać sport?</t>
+  </si>
+  <si>
+    <t>Wolisz lato pełne słońca czy lekki deszcz?</t>
+  </si>
+  <si>
+    <t>Czy starasz się unikać niepotrzebnych spięć?</t>
+  </si>
+  <si>
+    <t>Wolisz czytać książkę wieczorem czy rano?</t>
+  </si>
+  <si>
+    <t>Wolisz jeść owoce czy warzywa?</t>
+  </si>
+  <si>
+    <t>Wolisz mieć dużo znajomych czy kilku bliskich przyjaciół?</t>
   </si>
 </sst>
 </file>
@@ -468,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -483,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -494,10 +491,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -509,13 +506,13 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -526,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -541,10 +538,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,10 +549,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -581,10 +578,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -610,10 +607,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -628,10 +625,10 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/wyniki_temp.xlsx
+++ b/wyniki_temp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
-  <si>
-    <t>r_pytania</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>nr_pytania</t>
   </si>
   <si>
     <t>kategoria</t>
@@ -31,40 +31,19 @@
     <t>zgaduje</t>
   </si>
   <si>
-    <t>dodatkowo</t>
-  </si>
-  <si>
     <t>Dawid</t>
   </si>
   <si>
-    <t>Patrycja</t>
-  </si>
-  <si>
     <t>Wiktoria</t>
   </si>
   <si>
-    <t>Wolisz</t>
-  </si>
-  <si>
-    <t>Związkowe</t>
-  </si>
-  <si>
-    <t>Wolisz oglądać sport czy uprawiać sport?</t>
-  </si>
-  <si>
-    <t>Wolisz lato pełne słońca czy lekki deszcz?</t>
-  </si>
-  <si>
-    <t>Czy starasz się unikać niepotrzebnych spięć?</t>
-  </si>
-  <si>
-    <t>Wolisz czytać książkę wieczorem czy rano?</t>
-  </si>
-  <si>
-    <t>Wolisz jeść owoce czy warzywa?</t>
-  </si>
-  <si>
-    <t>Wolisz mieć dużo znajomych czy kilku bliskich przyjaciół?</t>
+    <t>Światopoglądowe</t>
+  </si>
+  <si>
+    <t>Czy uważasz, że każdy człowiek zasługuje na drugą szansę?</t>
+  </si>
+  <si>
+    <t>Czy uważasz, że wolność jednostki powinna mieć swoje granice?</t>
   </si>
 </sst>
 </file>
@@ -422,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,185 +429,51 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="F2">
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
